--- a/3.ehome/03-项目管理/05 员工日报/863-PMC-06 王萌萌日报 V1.1.xlsx
+++ b/3.ehome/03-项目管理/05 员工日报/863-PMC-06 王萌萌日报 V1.1.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <r>
       <rPr>
@@ -414,6 +414,39 @@
 1、查询话题时，如果没有数据库中没有当前话题，往前台传一个状态进行判断。
 2、转发信息
 3、后台speakbug修复</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成工作：
+1、转发/保存话题
+2、转发/@用户
+3、转发/保存转发</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成工作：
+1、评论/热门话题列表
+2、API中bug修复
+3、后台发言管理列表</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成工作：
+1、后台发言管理改造，和APP中用户关联
+2、API中加入公告相关的信息
+3、修改API中的bug</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成工作：
+1、消息页面API
+2、关注即时通讯</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成工作：
+1、修改接口中遗留的bug
+2、@我的消息，评论消息，关注消息即时通讯接口</t>
     <phoneticPr fontId="57" type="noConversion"/>
   </si>
 </sst>
@@ -1541,9 +1574,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1554,27 +1608,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3137,519 +3170,617 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="53"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="48"/>
     </row>
     <row r="2" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54" t="s">
+      <c r="F2" s="49"/>
+      <c r="G2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="55" t="s">
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="55" t="s">
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="56">
+      <c r="A3" s="51">
         <v>41946</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="57" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="48">
+      <c r="A4" s="55">
         <v>42362</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="50" t="s">
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:N16"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:N17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -3665,104 +3796,6 @@
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="S3:V3"/>
     <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:N6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:N7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:N8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="W8:Z8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:N16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:N17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W17:Z17"/>
   </mergeCells>
   <phoneticPr fontId="57" type="noConversion"/>
   <dataValidations count="1">
@@ -3881,10 +3914,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4037,13 +4070,118 @@
       </c>
       <c r="G7" s="45"/>
     </row>
+    <row r="8" spans="1:7" ht="65.25" customHeight="1">
+      <c r="A8" s="39">
+        <v>20170814</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="40">
+        <v>8</v>
+      </c>
+      <c r="D8" s="41">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="45"/>
+    </row>
+    <row r="9" spans="1:7" ht="60.75" customHeight="1">
+      <c r="A9" s="39">
+        <v>20170815</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="40">
+        <v>8</v>
+      </c>
+      <c r="D9" s="41">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="45"/>
+    </row>
+    <row r="10" spans="1:7" ht="68.25" customHeight="1">
+      <c r="A10" s="39">
+        <v>20170816</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="40">
+        <v>8</v>
+      </c>
+      <c r="D10" s="41">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="45"/>
+    </row>
+    <row r="11" spans="1:7" ht="84.75" customHeight="1">
+      <c r="A11" s="39">
+        <v>20170817</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="40">
+        <v>8</v>
+      </c>
+      <c r="D11" s="41">
+        <v>1200</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="45"/>
+    </row>
+    <row r="12" spans="1:7" ht="93.75" customHeight="1">
+      <c r="A12" s="39">
+        <v>20170818</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="40">
+        <v>8</v>
+      </c>
+      <c r="D12" s="41">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="45"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="57" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B12">
       <formula1>"项目管理,设计书编写,设计书review,代码开发,代码review,单元测试,单元测试文档编写,单元测试文档review,系统测试,系统测试文档编写"</formula1>
     </dataValidation>
   </dataValidations>
